--- a/src/samples/students_excel/Groups.xlsx
+++ b/src/samples/students_excel/Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\h\Development\FYP\final-year-project\src\samples\students_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6297F929-6C20-48CE-B8F1-2ECEE24715E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8A85A-48A1-4770-8F74-EC183533A45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{611A7E27-F5CC-449F-B454-7FBE7711AE83}"/>
   </bookViews>
@@ -1559,8 +1559,8 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109:H312"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/src/samples/students_excel/Groups.xlsx
+++ b/src/samples/students_excel/Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\h\Development\FYP\final-year-project\src\samples\students_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8A85A-48A1-4770-8F74-EC183533A45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50403153-D22D-47B9-BC3F-CD696F10B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{611A7E27-F5CC-449F-B454-7FBE7711AE83}"/>
+    <workbookView xWindow="18787" yWindow="567" windowWidth="12786" windowHeight="6586" xr2:uid="{611A7E27-F5CC-449F-B454-7FBE7711AE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'My Groups'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requests!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requests!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="353">
   <si>
     <t>Engagement</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>22125923</t>
-  </si>
-  <si>
-    <t>82130520</t>
   </si>
   <si>
     <t>52160592</t>
@@ -1556,11 +1553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C64270-A823-44B8-A132-88003B3D3128}">
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1572,7 +1569,7 @@
     <col min="5" max="8" width="9.52734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1611,10 +1608,13 @@
       <c r="D2" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3">
         <v>0.55000000000000004</v>
@@ -1632,13 +1632,16 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1655,16 +1658,19 @@
         <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="H4" s="2">
+        <v>2022213</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1674,25 +1680,28 @@
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1700,7 +1709,7 @@
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1710,15 +1719,18 @@
         <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1736,13 +1748,16 @@
         <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1756,18 +1771,21 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3">
         <v>0.85600000000000009</v>
@@ -1779,18 +1797,21 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -1802,18 +1823,21 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1828,13 +1852,16 @@
         <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1848,21 +1875,31 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3">
         <v>0.59950000000000003</v>
@@ -1877,18 +1914,28 @@
         <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3">
         <v>0.77500000000000002</v>
@@ -1903,18 +1950,28 @@
         <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3">
         <v>0.75825968334746963</v>
@@ -1929,18 +1986,28 @@
         <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3">
         <v>0.90913754594288942</v>
@@ -1955,18 +2022,21 @@
         <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="B17" s="3">
         <v>0.52448402601074351</v>
@@ -1977,1562 +2047,532 @@
       <c r="D17" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
-        <v>96</v>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="2">
+        <v>91914061</v>
       </c>
       <c r="B18" s="3">
-        <v>0.92799999999999994</v>
+        <v>0.5994584393553859</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5">
-        <v>19</v>
+      <c r="D18" s="2">
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B19" s="3">
-        <v>0.6169908114221091</v>
+        <v>0.67060163980774667</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5">
-        <v>19</v>
+      <c r="D19" s="2">
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3">
-        <v>0.92799999999999994</v>
+        <v>0.44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5">
-        <v>19</v>
+      <c r="D20" s="2">
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3">
-        <v>0.92799999999999994</v>
+        <v>0.70850000000000002</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="5">
-        <v>19</v>
+      <c r="D21" s="2">
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3">
-        <v>0.88300000000000001</v>
+        <v>7.6618603336160588E-4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B23" s="3">
-        <v>0.92799999999999994</v>
+        <v>0.81821755725190837</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="B25" s="3">
-        <v>0.82494189991518241</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2">
-        <v>20</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>0.61643101498445008</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2">
-        <v>20</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D26" s="5"/>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="B27" s="3">
-        <v>0.68817528979361042</v>
+        <v>4.2974271981905565E-4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="2">
-        <v>20</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B28" s="3">
-        <v>0.88300000000000001</v>
+        <v>0.47983319197059654</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="2">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B29" s="3">
-        <v>0.90549999999999997</v>
+        <v>0.29685750636132313</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="10">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3">
-        <v>0.88458114221091322</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B31" s="3">
-        <v>0.90549999999999997</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.92799999999999994</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="2">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="2">
-        <v>23</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.81099999999999994</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2">
-        <v>23</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.73640175289793608</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="2">
-        <v>23</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.76971571953633022</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="2">
-        <v>23</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.76150000000000007</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="10">
-        <v>23</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.83350000000000002</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="5">
-        <v>25</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.92757661860333618</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="5">
-        <v>25</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.89175671472999718</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="5">
-        <v>25</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.46565733672603904</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2">
-        <v>25</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="5">
-        <v>25</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="3">
+        <v>122</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2">
-        <v>28</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="2">
-        <v>28</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.84930265761945156</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2">
-        <v>36</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2">
-        <v>36</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2">
-        <v>36</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="2">
-        <v>36</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="2">
-        <v>36</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.86324427480916033</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.87549999999999994</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="2">
-        <v>49</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="2">
-        <v>49</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0.65850000000000009</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.5994584393553859</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="10">
-        <v>54</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0.67060163980774667</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="2">
-        <v>54</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="10">
-        <v>54</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0.70850000000000002</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="2">
-        <v>54</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="3">
-        <v>7.6618603336160588E-4</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0.81821755725190837</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A60" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B34" s="3"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B43" s="3"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B45" s="3"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B50" s="3"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B52" s="3"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B55" s="3"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B61" s="3"/>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.61643101498445008</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="3">
-        <v>4.2974271981905565E-4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.47983319197059654</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.29685750636132313</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.31284860050890589</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="3">
-        <v>0.83050876448968058</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A69" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A71" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.80103435114503818</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A73" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0.67849999999999999</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B68" s="3"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B71" s="3"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B72" s="3"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B73" s="3"/>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A74" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.79150000000000009</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A75" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0.87612977099236644</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A78" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.70299321458863451</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A79" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0.40686316087079449</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A82" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0.75986132315521626</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A83" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0.66521472999717279</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0.8175</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A85" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="3">
-        <v>0.75350000000000006</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="3">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A87" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="3">
-        <v>0.46552162849872775</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88" s="3">
-        <v>0.23945433983601921</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A89" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" s="3">
-        <v>0.39088634435962677</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="3">
-        <v>0.92799999999999994</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A91" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="3">
-        <v>0</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="10"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A92" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2.6542267458297991E-2</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A93" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="3">
-        <v>0.72682654792196777</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A95" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="3">
-        <v>0.29568702290076332</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A96" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" s="3">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" s="10"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B97" s="3">
-        <v>0.79545646027707106</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B99" s="3">
-        <v>0.90549999999999997</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="3">
-        <v>0.81099999999999994</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A101" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0.32243582131750076</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" s="10"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A103" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" s="3">
-        <v>0.97750000000000004</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A104" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B104" s="3">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A105" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="3">
-        <v>0.78368377155781732</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A106" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="3">
-        <v>0.77990373197625107</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A107" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B107" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B75" s="3"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B76" s="3"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B82" s="3"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B84" s="3"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B88" s="3"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B94" s="3"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B96" s="3"/>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B97" s="3"/>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B103" s="3"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B104" s="3"/>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B106" s="3"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B107" s="3"/>
       <c r="D107" s="10"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A108" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="3">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.5">
@@ -3540,17 +2580,19 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B114" s="3"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B115" s="3"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B117" s="3"/>
-      <c r="E117" s="10"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B118" s="3"/>
@@ -3562,6 +2604,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B120" s="3"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B121" s="3"/>
@@ -3569,49 +2612,54 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B122" s="3"/>
-      <c r="D122" s="10"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B123" s="3"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B124" s="3"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B125" s="3"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B126" s="3"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B127" s="3"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B128" s="3"/>
-      <c r="E128" s="10"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B130" s="3"/>
-      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B131" s="3"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B132" s="3"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B133" s="3"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B134" s="3"/>
-      <c r="D134" s="10"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B135" s="3"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B136" s="3"/>
@@ -3627,24 +2675,23 @@
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B140" s="3"/>
-      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B141" s="3"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B142" s="3"/>
-      <c r="E142" s="10"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B143" s="3"/>
-      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B145" s="3"/>
+      <c r="D145" s="10"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B146" s="3"/>
@@ -3657,11 +2704,9 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B149" s="3"/>
-      <c r="E149" s="10"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B150" s="3"/>
-      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B151" s="3"/>
@@ -3672,7 +2717,6 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B153" s="3"/>
-      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B154" s="3"/>
@@ -3682,10 +2726,10 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B156" s="3"/>
+      <c r="D156" s="10"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B157" s="3"/>
-      <c r="E157" s="10"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B158" s="3"/>
@@ -3695,27 +2739,23 @@
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B160" s="3"/>
-      <c r="D160" s="10"/>
       <c r="E160" s="13"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B161" s="3"/>
-      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B163" s="3"/>
-      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B164" s="3"/>
-      <c r="D164" s="10"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B165" s="3"/>
-      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B166" s="3"/>
@@ -3723,19 +2763,16 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B167" s="3"/>
-      <c r="D167" s="10"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B168" s="3"/>
+      <c r="D168" s="16"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B169" s="3"/>
-      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B170" s="3"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="13"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B171" s="3"/>
@@ -3743,123 +2780,132 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B172" s="3"/>
-      <c r="E172" s="13"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B173" s="3"/>
-      <c r="D173" s="16"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B174" s="3"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B175" s="3"/>
+      <c r="E175" s="10"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B176" s="3"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B177" s="3"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B178" s="3"/>
-      <c r="D178" s="10"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B179" s="3"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B180" s="3"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B181" s="3"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="13"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B182" s="3"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B183" s="3"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B184" s="3"/>
+      <c r="D184" s="10"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B185" s="3"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B186" s="3"/>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B187" s="3"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B188" s="3"/>
-      <c r="D188" s="10"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B189" s="3"/>
+      <c r="D189" s="16"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B190" s="3"/>
+      <c r="D190" s="10"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B191" s="3"/>
-      <c r="D191" s="10"/>
+      <c r="D191" s="16"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B194" s="3"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D194" s="10"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D195" s="16"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B198" s="3"/>
       <c r="D198" s="10"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B199" s="3"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D199" s="10"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B202" s="3"/>
       <c r="D202" s="10"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B206" s="3"/>
-      <c r="E206" s="13"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D206" s="13"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B207" s="3"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D207" s="16"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B208" s="3"/>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.5">
@@ -3870,18 +2916,17 @@
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B211" s="3"/>
-      <c r="E211" s="10"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B212" s="3"/>
-      <c r="D212" s="10"/>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B213" s="3"/>
+      <c r="D213" s="16"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B214" s="3"/>
-      <c r="D214" s="16"/>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B215" s="3"/>
@@ -3904,80 +2949,73 @@
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B221" s="3"/>
-      <c r="E221" s="10"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B222" s="3"/>
       <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B223" s="3"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="13"/>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B226" s="3"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="10"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B229" s="3"/>
-      <c r="D229" s="13"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D229" s="10"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B230" s="3"/>
-      <c r="D230" s="10"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B232" s="3"/>
-      <c r="D232" s="10"/>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B233" s="3"/>
-      <c r="E233" s="10"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B234" s="3"/>
-      <c r="D234" s="13"/>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B235" s="3"/>
-      <c r="D235" s="16"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B236" s="3"/>
-      <c r="D236" s="10"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B237" s="3"/>
       <c r="D237" s="16"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B240" s="3"/>
-      <c r="D240" s="10"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B241" s="3"/>
-      <c r="D241" s="16"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B242" s="3"/>
@@ -3987,11 +3025,10 @@
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B244" s="3"/>
-      <c r="D244" s="10"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B245" s="3"/>
-      <c r="D245" s="10"/>
+      <c r="D245" s="16"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B246" s="3"/>
@@ -4001,227 +3038,70 @@
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B248" s="3"/>
-      <c r="D248" s="10"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B249" s="3"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B250" s="3"/>
+      <c r="D250" s="10"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B251" s="3"/>
+      <c r="D251" s="10"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B252" s="3"/>
-      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B253" s="3"/>
-      <c r="D253" s="16"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B254" s="3"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B255" s="3"/>
+      <c r="D255" s="16"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B257" s="3"/>
-      <c r="D257" s="10"/>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D257" s="13"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B259" s="3"/>
       <c r="D259" s="16"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B260" s="3"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B263" s="3"/>
-      <c r="D263" s="10"/>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B264" s="3"/>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="D264" s="10"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B266" s="3"/>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B267" s="3"/>
-      <c r="D267" s="10"/>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B268" s="3"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="10"/>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B269" s="3"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="13"/>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B270" s="3"/>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B272" s="3"/>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B273" s="3"/>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B274" s="3"/>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B275" s="3"/>
-      <c r="D275" s="10"/>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B276" s="3"/>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B277" s="3"/>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B278" s="3"/>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B279" s="3"/>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B280" s="3"/>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B281" s="3"/>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B282" s="3"/>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B283" s="3"/>
-      <c r="D283" s="16"/>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B284" s="3"/>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B285" s="3"/>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B286" s="3"/>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B287" s="3"/>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B288" s="3"/>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B289" s="3"/>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B290" s="3"/>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B291" s="3"/>
-      <c r="D291" s="16"/>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B292" s="3"/>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B293" s="3"/>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B294" s="3"/>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B295" s="3"/>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B296" s="3"/>
-      <c r="D296" s="10"/>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B297" s="3"/>
-      <c r="D297" s="10"/>
-    </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B299" s="3"/>
-    </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B301" s="3"/>
-      <c r="D301" s="16"/>
-    </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B302" s="3"/>
-    </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B303" s="3"/>
-      <c r="D303" s="13"/>
-    </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B304" s="3"/>
-    </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B305" s="3"/>
-      <c r="D305" s="16"/>
-    </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B306" s="3"/>
-      <c r="D306" s="4"/>
-    </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B307" s="3"/>
-    </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B308" s="3"/>
-    </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B309" s="3"/>
-    </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B310" s="3"/>
-      <c r="D310" s="10"/>
-    </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B311" s="3"/>
-    </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.5">
-      <c r="B312" s="3"/>
-      <c r="D312" s="16"/>
+      <c r="D266" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{60C64270-A823-44B8-A132-88003B3D3128}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H312">
-      <sortCondition ref="C1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4268,7 +3148,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>4</v>
@@ -4276,7 +3156,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>4</v>
@@ -4284,7 +3164,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>4</v>
@@ -4292,7 +3172,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -4308,7 +3188,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>5</v>
@@ -4324,7 +3204,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>5</v>
@@ -4332,7 +3212,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>7</v>
@@ -4340,7 +3220,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>7</v>
@@ -4348,7 +3228,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>7</v>
@@ -4364,7 +3244,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
@@ -4372,7 +3252,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>12</v>
@@ -4380,7 +3260,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>12</v>
@@ -4388,7 +3268,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>12</v>
@@ -4396,7 +3276,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>12</v>
@@ -4404,7 +3284,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>12</v>
@@ -4412,7 +3292,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>8</v>
@@ -4428,7 +3308,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>8</v>
@@ -4436,7 +3316,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>8</v>
@@ -4452,7 +3332,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>9</v>
@@ -4460,7 +3340,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>9</v>
@@ -4468,7 +3348,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>9</v>
@@ -4476,7 +3356,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
@@ -4484,7 +3364,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>9</v>
@@ -4492,7 +3372,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>13</v>
@@ -4500,7 +3380,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>13</v>
@@ -4508,7 +3388,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>13</v>
@@ -4516,7 +3396,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>13</v>
@@ -4524,7 +3404,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>13</v>
@@ -4532,7 +3412,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>14</v>
@@ -4548,7 +3428,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>14</v>
@@ -4556,7 +3436,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>14</v>
@@ -4572,7 +3452,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>10</v>
@@ -4580,7 +3460,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>10</v>
@@ -4588,7 +3468,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>10</v>
@@ -4596,7 +3476,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>10</v>
@@ -4604,7 +3484,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>10</v>
@@ -4620,7 +3500,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>11</v>
@@ -4628,7 +3508,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>11</v>
@@ -4636,7 +3516,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>11</v>
@@ -4644,7 +3524,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>11</v>
@@ -4652,7 +3532,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>6</v>
@@ -4660,7 +3540,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>6</v>
@@ -4668,7 +3548,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>6</v>
@@ -4676,7 +3556,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>6</v>
@@ -4684,7 +3564,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>6</v>
@@ -4692,7 +3572,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>16</v>
@@ -4700,7 +3580,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>16</v>
@@ -4708,7 +3588,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>16</v>
@@ -4716,7 +3596,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>16</v>
@@ -4724,7 +3604,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>16</v>
@@ -4732,7 +3612,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>17</v>
@@ -4740,7 +3620,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>17</v>
@@ -4756,7 +3636,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>17</v>
@@ -4764,7 +3644,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>17</v>
@@ -4772,7 +3652,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>18</v>
@@ -4780,7 +3660,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>18</v>
@@ -4788,7 +3668,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>18</v>
@@ -4796,7 +3676,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>18</v>
@@ -4804,7 +3684,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>18</v>
@@ -4812,7 +3692,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>19</v>
@@ -4820,7 +3700,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>19</v>
@@ -4828,7 +3708,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>19</v>
@@ -4836,7 +3716,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>19</v>
@@ -4844,7 +3724,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>19</v>
@@ -4852,7 +3732,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>20</v>
@@ -4860,7 +3740,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>20</v>
@@ -4868,7 +3748,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>20</v>
@@ -4876,7 +3756,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>20</v>
@@ -4884,7 +3764,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>20</v>
@@ -4892,7 +3772,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>21</v>
@@ -4900,7 +3780,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>21</v>
@@ -4908,7 +3788,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>21</v>
@@ -4916,7 +3796,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>21</v>
@@ -4924,7 +3804,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>21</v>
@@ -4932,7 +3812,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>22</v>
@@ -4940,7 +3820,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>22</v>
@@ -4948,7 +3828,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>22</v>
@@ -4956,7 +3836,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>22</v>
@@ -4964,7 +3844,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>22</v>
@@ -4972,7 +3852,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>23</v>
@@ -4980,7 +3860,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>23</v>
@@ -4988,7 +3868,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>23</v>
@@ -4996,7 +3876,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>23</v>
@@ -5004,7 +3884,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>23</v>
@@ -5012,7 +3892,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>24</v>
@@ -5020,7 +3900,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>24</v>
@@ -5028,7 +3908,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>24</v>
@@ -5036,7 +3916,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>24</v>
@@ -5044,7 +3924,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>24</v>
@@ -5052,7 +3932,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>2</v>
@@ -5060,7 +3940,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>2</v>
@@ -5068,7 +3948,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>2</v>
@@ -5076,7 +3956,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>2</v>
@@ -5084,7 +3964,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>2</v>
@@ -5092,7 +3972,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>33</v>
@@ -5100,7 +3980,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>33</v>
@@ -5108,7 +3988,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>33</v>
@@ -5116,7 +3996,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>33</v>
@@ -5124,7 +4004,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>33</v>
@@ -5132,7 +4012,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>25</v>
@@ -5140,7 +4020,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>25</v>
@@ -5148,7 +4028,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>25</v>
@@ -5156,7 +4036,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>25</v>
@@ -5164,7 +4044,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>25</v>
@@ -5172,7 +4052,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>26</v>
@@ -5180,7 +4060,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>26</v>
@@ -5188,7 +4068,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>26</v>
@@ -5196,7 +4076,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>26</v>
@@ -5204,7 +4084,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>26</v>
@@ -5212,7 +4092,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>15</v>
@@ -5220,7 +4100,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>15</v>
@@ -5228,7 +4108,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>15</v>
@@ -5236,7 +4116,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>15</v>
@@ -5244,7 +4124,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>15</v>
@@ -5252,7 +4132,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>27</v>
@@ -5260,7 +4140,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>27</v>
@@ -5268,7 +4148,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>27</v>
@@ -5276,7 +4156,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A130" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>27</v>
@@ -5284,7 +4164,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A131" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>27</v>
@@ -5292,7 +4172,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A132" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>28</v>
@@ -5300,7 +4180,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A133" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>28</v>
@@ -5308,7 +4188,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A134" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B134" s="15" t="s">
         <v>28</v>
@@ -5316,7 +4196,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A135" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>28</v>
@@ -5324,7 +4204,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A136" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>28</v>
@@ -5332,7 +4212,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A137" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>29</v>
@@ -5340,7 +4220,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A138" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>29</v>
@@ -5348,7 +4228,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A139" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>29</v>
@@ -5356,7 +4236,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A140" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>29</v>
@@ -5364,7 +4244,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A141" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>29</v>
@@ -5372,7 +4252,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A142" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>30</v>
@@ -5380,7 +4260,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A143" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>30</v>
@@ -5388,7 +4268,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A144" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>30</v>
@@ -5396,7 +4276,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A145" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B145" s="15" t="s">
         <v>30</v>
@@ -5404,7 +4284,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A146" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B146" s="15" t="s">
         <v>30</v>
@@ -5412,7 +4292,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A147" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>3</v>
@@ -5420,7 +4300,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A148" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>3</v>
@@ -5428,7 +4308,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A149" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>3</v>
@@ -5436,7 +4316,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A150" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>3</v>
@@ -5444,7 +4324,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A151" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>3</v>
@@ -5452,7 +4332,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A152" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>31</v>
@@ -5460,7 +4340,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A153" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>31</v>
@@ -5468,7 +4348,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A154" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>31</v>
@@ -5476,7 +4356,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A155" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>31</v>
@@ -5484,7 +4364,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A156" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>31</v>
@@ -5492,7 +4372,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A157" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>32</v>
@@ -5500,7 +4380,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A158" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>32</v>
@@ -5508,7 +4388,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A159" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>32</v>
@@ -5516,7 +4396,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A160" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>32</v>
@@ -5524,7 +4404,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>32</v>
@@ -5532,7 +4412,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>34</v>
@@ -5540,7 +4420,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>34</v>
@@ -5548,7 +4428,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>34</v>
@@ -5556,7 +4436,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>34</v>
@@ -5564,7 +4444,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>34</v>
@@ -5572,7 +4452,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>35</v>
@@ -5580,7 +4460,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>35</v>
@@ -5588,7 +4468,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>35</v>
@@ -5596,7 +4476,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>35</v>
@@ -5604,7 +4484,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>35</v>
@@ -5612,163 +4492,163 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B172" s="11"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B173" s="11"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B174" s="11"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B175" s="11"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B176" s="11"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A177" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B177" s="11"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A178" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B178" s="11"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A179" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B179" s="11"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A180" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B180" s="11"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A181" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B181" s="11"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A182" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B182" s="11"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A183" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B183" s="11"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A184" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A185" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B185" s="11"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A186" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B186" s="11"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A187" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B187" s="11"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A188" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B188" s="11"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A189" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B189" s="11"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A190" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B190" s="11"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A191" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B191" s="11"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A192" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B192" s="11"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A193" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" s="15"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A194" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B194" s="15"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A195" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B195" s="15"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A196" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B196" s="11"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A197" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B197" s="15"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A198" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B198" s="15"/>
     </row>
@@ -5780,109 +4660,109 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A200" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B200" s="15"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A201" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B201" s="15"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A202" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B202" s="11"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A203" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B203" s="11"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A204" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B204" s="11"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A205" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B205" s="11"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A206" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B206" s="11"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A207" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B207" s="11"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A208" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B208" s="15"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A209" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B209" s="11"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A210" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="11"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A211" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B211" s="11"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A212" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B212" s="15"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A213" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B213" s="15"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A214" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B214" s="15"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A215" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B215" s="15"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A216" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B216" s="15"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A217" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B217" s="15"/>
     </row>
@@ -5894,37 +4774,37 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A219" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B219" s="15"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A220" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="15"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A221" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B221" s="15"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A222" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B222" s="11"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A223" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B223" s="11"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A224" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B224" s="11"/>
     </row>
@@ -5936,121 +4816,121 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A226" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B226" s="11"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A227" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B227" s="11"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A228" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B228" s="11"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A229" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B229" s="11"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A230" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B230" s="11"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A231" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B231" s="11"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A232" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B232" s="15"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A233" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B233" s="15"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A234" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B234" s="15"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A235" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B235" s="15"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A236" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B236" s="15"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A237" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B237" s="11"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A238" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B238" s="11"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A239" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B239" s="11"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A240" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B240" s="11"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A241" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B241" s="11"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A242" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B242" s="11"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A243" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B243" s="11"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A244" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B244" s="11"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A245" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B245" s="11"/>
     </row>
@@ -6062,337 +4942,337 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A247" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B247" s="11"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A248" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B248" s="11"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A249" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B249" s="11"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A250" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B250" s="11"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A251" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B251" s="11"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A252" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B252" s="11"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A253" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B253" s="11"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A254" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B254" s="11"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A255" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="11"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A256" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B256" s="11"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A257" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B257" s="11"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A258" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B258" s="11"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A259" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B259" s="11"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A260" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B260" s="11"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A261" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B261" s="11"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A262" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B262" s="11"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A263" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B263" s="11"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A264" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B264" s="13"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A265" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B265" s="14"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A266" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B266" s="14"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A267" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B267" s="14"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A268" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B268" s="14"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A269" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B269" s="14"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A270" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B270" s="14"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A271" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B271" s="14"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A272" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B272" s="14"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A273" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B273" s="14"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A274" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B274" s="14"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A275" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B275" s="14"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A276" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B276" s="14"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A277" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B277" s="14"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A278" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B278" s="14"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A279" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B279" s="14"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A280" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B280" s="14"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A281" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B281" s="14"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A282" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B282" s="14"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A283" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B283" s="14"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A284" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B284" s="14"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A285" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B285" s="14"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A286" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B286" s="14"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A287" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B287" s="14"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A288" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B288" s="14"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A289" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B289" s="14"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A290" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B290" s="14"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A291" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B291" s="14"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A292" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B292" s="14"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A293" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B293" s="14"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A294" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B294" s="14"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A295" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B295" s="14"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A296" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B296" s="14"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A297" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B297" s="14"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A298" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B298" s="11"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A299" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B299" s="11"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A300" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B300" s="11"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A301" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B301" s="11"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A302" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B302" s="11"/>
     </row>
@@ -6404,55 +5284,55 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A304" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B304" s="11"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A305" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B305" s="11"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A306" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B306" s="11"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A307" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B307" s="11"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A308" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B308" s="11"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A309" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B309" s="11"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A310" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B310" s="11"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A311" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B311" s="11"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A312" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B312" s="11"/>
     </row>
